--- a/data/trans_orig/IP22D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1FBEDE-A4AD-4803-A073-DC2F93518FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D446BD54-5FC1-421A-9ECA-9FD19E26CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{720250FD-258F-45ED-B3FC-B81AECA7BEBA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{376ED931-118A-4FFF-83CD-50F222B678AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,25 +110,25 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>76,11%</t>
+    <t>78,69%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>88,46%</t>
+    <t>87,92%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>23,89%</t>
+    <t>21,31%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>11,54%</t>
+    <t>12,08%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -137,7 +137,7 @@
     <t>94,46%</t>
   </si>
   <si>
-    <t>77,09%</t>
+    <t>70,67%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -146,13 +146,13 @@
     <t>96,58%</t>
   </si>
   <si>
-    <t>82,85%</t>
+    <t>84,17%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>22,91%</t>
+    <t>29,33%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -161,7 +161,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>17,15%</t>
+    <t>15,83%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -188,7 +188,7 @@
     <t>97,28%</t>
   </si>
   <si>
-    <t>89,33%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -197,13 +197,13 @@
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,25%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>10,67%</t>
+    <t>8,88%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -212,7 +212,7 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,75%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AC202C-3EAE-4D1C-B38D-064BA3CD1D3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF6F36D-18ED-4FB3-AE42-67C090B61270}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D446BD54-5FC1-421A-9ECA-9FD19E26CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B751EDCC-3743-4779-8D76-492371BE20DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{376ED931-118A-4FFF-83CD-50F222B678AC}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{01C197D5-960F-4854-9814-DC5DD45CF6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,15 +74,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>92,07%</t>
   </si>
   <si>
@@ -95,12 +95,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>7,93%</t>
   </si>
   <si>
@@ -110,109 +110,109 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>92,94%</t>
+  </si>
+  <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
     <t>95,66%</t>
   </si>
   <si>
+    <t>7,06%</t>
+  </si>
+  <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
     <t>4,34%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>89,8%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>94,53%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>10,2%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>5,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF6F36D-18ED-4FB3-AE42-67C090B61270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662C793A-8CE7-4F68-BE8D-AFCD80A69D36}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -745,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -760,10 +760,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -778,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -847,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -862,10 +862,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -880,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -900,40 +900,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
-        <v>11284</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>12014</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7589</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>18872</v>
+        <v>20073</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -951,40 +951,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>491</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>523</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1002,10 +1002,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>11775</v>
+        <v>8059</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1017,10 +1017,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>7589</v>
+        <v>12537</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1035,7 +1035,7 @@
         <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1055,40 +1055,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9507</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
-        <v>14558</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>15794</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9550</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>24108</v>
+        <v>25301</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>35</v>
@@ -1106,31 +1106,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>854</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>925</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>39</v>
@@ -1139,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1157,25 +1157,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
-        <v>15412</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>13</v>
-      </c>
       <c r="I12" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1190,7 +1190,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1210,10 +1210,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>16266</v>
+        <v>23598</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1225,10 +1225,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1243,7 +1243,7 @@
         <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1312,10 +1312,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>16266</v>
+        <v>23598</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1327,10 +1327,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1345,7 +1345,7 @@
         <v>43</v>
       </c>
       <c r="N15" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1365,40 +1365,40 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>62</v>
       </c>
-      <c r="D16" s="7">
-        <v>48072</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>51824</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>63</v>
-      </c>
-      <c r="I16" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
       </c>
       <c r="N16" s="7">
-        <v>92432</v>
+        <v>99990</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>52</v>
@@ -1416,31 +1416,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1345</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>1448</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>56</v>
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1345</v>
+        <v>1448</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>57</v>
@@ -1467,25 +1467,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>64</v>
       </c>
-      <c r="D18" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>63</v>
-      </c>
       <c r="I18" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1500,7 +1500,7 @@
         <v>127</v>
       </c>
       <c r="N18" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
